--- a/deployment/v3/mosip/kernel/masterdata/upload/xlsx_files/valid_document.xlsx
+++ b/deployment/v3/mosip/kernel/masterdata/upload/xlsx_files/valid_document.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D2"/>
+  <dimension ref="A1:D1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -436,43 +436,23 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>docTypeCode</t>
+          <t>lang_code</t>
         </is>
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>docCategoryCode</t>
+          <t>doctyp_code</t>
         </is>
       </c>
       <c r="C1" s="1" t="inlineStr">
         <is>
-          <t>langCode</t>
+          <t>doccat_code</t>
         </is>
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
-          <t>isActive</t>
+          <t>is_active</t>
         </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" t="inlineStr">
-        <is>
-          <t>DOE</t>
-        </is>
-      </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>EOD</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>ara</t>
-        </is>
-      </c>
-      <c r="D2" t="b">
-        <v>1</v>
       </c>
     </row>
   </sheetData>

--- a/deployment/v3/mosip/kernel/masterdata/upload/xlsx_files/valid_document.xlsx
+++ b/deployment/v3/mosip/kernel/masterdata/upload/xlsx_files/valid_document.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D2"/>
+  <dimension ref="B1:E1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -434,45 +434,25 @@
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
-      <c r="A1" s="1" t="inlineStr">
-        <is>
-          <t>docTypeCode</t>
-        </is>
-      </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>docCategoryCode</t>
+          <t>lang_code</t>
         </is>
       </c>
       <c r="C1" s="1" t="inlineStr">
         <is>
-          <t>langCode</t>
+          <t>doctyp_code</t>
         </is>
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
-          <t>isActive</t>
+          <t>doccat_code</t>
         </is>
       </c>
-    </row>
-    <row r="2">
-      <c r="A2" t="inlineStr">
+      <c r="E1" s="1" t="inlineStr">
         <is>
-          <t>DOE</t>
+          <t>is_active</t>
         </is>
-      </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>EOD</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>ara</t>
-        </is>
-      </c>
-      <c r="D2" t="b">
-        <v>1</v>
       </c>
     </row>
   </sheetData>
